--- a/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>189366</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171662</v>
+        <v>169077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>203285</v>
+        <v>201278</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8984019939224182</v>
+        <v>0.898401993922418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8144090730827818</v>
+        <v>0.8021448658774857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9644361931262829</v>
+        <v>0.9549140423522116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -762,19 +762,19 @@
         <v>146696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>135492</v>
+        <v>132993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155398</v>
+        <v>154413</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9000562570563473</v>
+        <v>0.9000562570563471</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8313154098530924</v>
+        <v>0.8159831715192413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9534471322073613</v>
+        <v>0.9474044121028693</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>162</v>
@@ -783,19 +783,19 @@
         <v>336062</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313899</v>
+        <v>313633</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>351985</v>
+        <v>352218</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8991233537646627</v>
+        <v>0.8991233537646628</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8398265050352215</v>
+        <v>0.8391154788103861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.941725911107136</v>
+        <v>0.9423488671066657</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6746</v>
+        <v>7270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36319</v>
+        <v>36632</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08482347768530217</v>
+        <v>0.08482347768530216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03200603510480955</v>
+        <v>0.03449314011705991</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1723074632379186</v>
+        <v>0.1737903736280282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>12038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5393</v>
+        <v>5540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22753</v>
+        <v>24786</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0738578198231075</v>
+        <v>0.07385781982310749</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03308744201386161</v>
+        <v>0.03399367415335108</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1396045553468439</v>
+        <v>0.1520775764112525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -854,19 +854,19 @@
         <v>29917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15227</v>
+        <v>16941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50731</v>
+        <v>51380</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08004178058806201</v>
+        <v>0.08004178058806202</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04074065103088682</v>
+        <v>0.04532538928931047</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1357297431773577</v>
+        <v>0.1374655907522221</v>
       </c>
     </row>
     <row r="6">
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20200</v>
+        <v>16031</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0167745283922797</v>
+        <v>0.01677452839227969</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09583244817438161</v>
+        <v>0.07605730423924514</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13007</v>
+        <v>13709</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02608592312054536</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07980478937647074</v>
+        <v>0.08411173970412768</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -925,19 +925,19 @@
         <v>7787</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1930</v>
+        <v>1908</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22862</v>
+        <v>24705</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02083486564727536</v>
+        <v>0.02083486564727537</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005164524252470094</v>
+        <v>0.005104591141625062</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06116752743042372</v>
+        <v>0.06609736489901739</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1076,19 @@
         <v>202801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>189167</v>
+        <v>187307</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>213881</v>
+        <v>214065</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.894132940184366</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8340202482877452</v>
+        <v>0.825821980909007</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9429843585285538</v>
+        <v>0.943796577285706</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>207</v>
@@ -1097,19 +1097,19 @@
         <v>226361</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>215623</v>
+        <v>213990</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>235849</v>
+        <v>235276</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9041641672019313</v>
+        <v>0.9041641672019314</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8612717122046103</v>
+        <v>0.8547477575924697</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9420631348839996</v>
+        <v>0.9397739304027878</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>338</v>
@@ -1118,19 +1118,19 @@
         <v>429161</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>411668</v>
+        <v>410308</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>442204</v>
+        <v>442037</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8993959962443909</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8627362662945751</v>
+        <v>0.8598850922690352</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9267291417874334</v>
+        <v>0.9263807514113261</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>20324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10673</v>
+        <v>10373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34308</v>
+        <v>35881</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08960809605211509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04705813944538635</v>
+        <v>0.04573523126184394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1512624881924517</v>
+        <v>0.1581961933143767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1168,19 +1168,19 @@
         <v>18987</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10487</v>
+        <v>11183</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28893</v>
+        <v>30430</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07584256803562088</v>
+        <v>0.07584256803562089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04188988324657899</v>
+        <v>0.04466892468614714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1154101649167934</v>
+        <v>0.121549615756311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -1189,19 +1189,19 @@
         <v>39312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26980</v>
+        <v>28046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55838</v>
+        <v>57698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08238577464319953</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05654121261043801</v>
+        <v>0.05877597549864112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1170199985041476</v>
+        <v>0.1209180429394458</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9936</v>
+        <v>10181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008023910654368641</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04380594837129662</v>
+        <v>0.04488773769720394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1239,19 +1239,19 @@
         <v>3331</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9045</v>
+        <v>8987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01330704679956322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004324879199395211</v>
+        <v>0.004319283524641776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0361287369048162</v>
+        <v>0.03589893593617519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1260,19 +1260,19 @@
         <v>5151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1149</v>
+        <v>1782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12787</v>
+        <v>14792</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01079579904411542</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002407596212231146</v>
+        <v>0.00373484323710508</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02679739829555639</v>
+        <v>0.0309997669581458</v>
       </c>
     </row>
     <row r="12">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9683</v>
+        <v>10154</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008235053109150457</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04268983345441195</v>
+        <v>0.04476738858606272</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9134</v>
+        <v>7016</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.006686217962884465</v>
+        <v>0.006686217962884466</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03648238529908977</v>
+        <v>0.02802561151177939</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1334,16 +1334,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12120</v>
+        <v>12552</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.00742243006829404</v>
+        <v>0.007422430068294039</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02539912301738374</v>
+        <v>0.02630620389711246</v>
       </c>
     </row>
     <row r="13">
@@ -1435,19 +1435,19 @@
         <v>229464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>217756</v>
+        <v>217905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>238606</v>
+        <v>237753</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9087030588001027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8623375235767476</v>
+        <v>0.862927285063017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9449049586437094</v>
+        <v>0.9415289504475073</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -1456,19 +1456,19 @@
         <v>258572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>248909</v>
+        <v>248093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267238</v>
+        <v>267269</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8716853913682348</v>
+        <v>0.8716853913682349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8391076417607487</v>
+        <v>0.8363590808817692</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9008995835383703</v>
+        <v>0.9010030643724183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>544</v>
@@ -1477,19 +1477,19 @@
         <v>488036</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>473591</v>
+        <v>472208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>501693</v>
+        <v>501099</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8887072584297327</v>
+        <v>0.8887072584297329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8624029786172871</v>
+        <v>0.8598846648012011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9135768578514605</v>
+        <v>0.9124938015095373</v>
       </c>
     </row>
     <row r="15">
@@ -1506,19 +1506,19 @@
         <v>21915</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13079</v>
+        <v>13982</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33288</v>
+        <v>33090</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08678544201480087</v>
+        <v>0.08678544201480086</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0517923538502223</v>
+        <v>0.05537134510940477</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1318257598269335</v>
+        <v>0.1310396568915469</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -1527,19 +1527,19 @@
         <v>31149</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23153</v>
+        <v>23524</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40478</v>
+        <v>41281</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1050085262320472</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07805336757760756</v>
+        <v>0.07930234963565065</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.136458660482489</v>
+        <v>0.1391642706127053</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>63</v>
@@ -1548,19 +1548,19 @@
         <v>53064</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>40684</v>
+        <v>41482</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>67369</v>
+        <v>67950</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09662898914837313</v>
+        <v>0.09662898914837315</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07408488614985898</v>
+        <v>0.07553877323061357</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1226776132546168</v>
+        <v>0.1237351745489443</v>
       </c>
     </row>
     <row r="16">
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6772</v>
+        <v>6797</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004511499185096477</v>
+        <v>0.004511499185096476</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02681839734019953</v>
+        <v>0.02691546685787201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1598,19 +1598,19 @@
         <v>3364</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7627</v>
+        <v>7670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01134082704368911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002938398779440663</v>
+        <v>0.002989775911689262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02571104639160518</v>
+        <v>0.02585510380595752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1619,19 +1619,19 @@
         <v>4503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1644</v>
+        <v>1559</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10042</v>
+        <v>10054</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008200491117815152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002994066901331231</v>
+        <v>0.002838235795372391</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01828637616442633</v>
+        <v>0.01830907955560699</v>
       </c>
     </row>
     <row r="17">
@@ -1661,19 +1661,19 @@
         <v>3549</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1360</v>
+        <v>848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7236</v>
+        <v>7819</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0119652553560288</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0045850881616326</v>
+        <v>0.002859419032682935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02439363664234625</v>
+        <v>0.02635756070966937</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1682,19 +1682,19 @@
         <v>3549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7549</v>
+        <v>7889</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006463261304078814</v>
+        <v>0.006463261304078815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002490737643547016</v>
+        <v>0.002482407192188349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0137467170020871</v>
+        <v>0.01436651697127641</v>
       </c>
     </row>
     <row r="18">
@@ -1786,19 +1786,19 @@
         <v>264994</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>249665</v>
+        <v>249720</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>278033</v>
+        <v>277355</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8357635899641351</v>
+        <v>0.8357635899641354</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7874171063651675</v>
+        <v>0.7875921956347202</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8768890912601741</v>
+        <v>0.874750088804139</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>467</v>
@@ -1807,19 +1807,19 @@
         <v>306924</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>297307</v>
+        <v>297242</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>315543</v>
+        <v>314666</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8875550922155133</v>
+        <v>0.8875550922155132</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8597453290473287</v>
+        <v>0.8595572140996498</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.912481587266607</v>
+        <v>0.9099456002414809</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>717</v>
@@ -1828,19 +1828,19 @@
         <v>571917</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>554439</v>
+        <v>553622</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>588553</v>
+        <v>587803</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8627820948242526</v>
+        <v>0.8627820948242525</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8364148603664955</v>
+        <v>0.8351830468734095</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8878798610817876</v>
+        <v>0.8867485622196415</v>
       </c>
     </row>
     <row r="20">
@@ -1857,19 +1857,19 @@
         <v>39103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27847</v>
+        <v>26979</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52627</v>
+        <v>52332</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1233265408863856</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08782688706414571</v>
+        <v>0.08508807547948792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1659793166564698</v>
+        <v>0.1650493765965983</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -1878,19 +1878,19 @@
         <v>26988</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19804</v>
+        <v>19710</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35101</v>
+        <v>34953</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07804272330573145</v>
+        <v>0.07804272330573143</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.057269848052516</v>
+        <v>0.05699711063244071</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1015033547602956</v>
+        <v>0.1010758664386382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -1899,19 +1899,19 @@
         <v>66091</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51340</v>
+        <v>52757</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81138</v>
+        <v>84886</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09970295415493467</v>
+        <v>0.09970295415493466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07745053659691171</v>
+        <v>0.07958850675688639</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1224037398682527</v>
+        <v>0.1280571899365098</v>
       </c>
     </row>
     <row r="21">
@@ -1928,19 +1928,19 @@
         <v>9982</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4698</v>
+        <v>4576</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18577</v>
+        <v>18939</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03148177436135986</v>
+        <v>0.03148177436135987</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0148179493447339</v>
+        <v>0.01443094355226908</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05859117528589506</v>
+        <v>0.0597318214224815</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1949,19 +1949,19 @@
         <v>9394</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5390</v>
+        <v>5316</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15378</v>
+        <v>15530</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02716643131886182</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01558787600969114</v>
+        <v>0.01537348632965483</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04446902555058405</v>
+        <v>0.04490787551779071</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -1970,19 +1970,19 @@
         <v>19376</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12085</v>
+        <v>12407</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29528</v>
+        <v>29810</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02923055337145888</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0182317071242437</v>
+        <v>0.01871692874041806</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04454608089071543</v>
+        <v>0.04497147320556409</v>
       </c>
     </row>
     <row r="22">
@@ -2002,16 +2002,16 @@
         <v>912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8399</v>
+        <v>7608</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009428094788119219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002876910872180413</v>
+        <v>0.002875845647519001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02649008755262747</v>
+        <v>0.02399615960207527</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2020,19 +2020,19 @@
         <v>2502</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6286</v>
+        <v>5908</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.007235753159893542</v>
+        <v>0.00723575315989354</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001873224832711708</v>
+        <v>0.001919470630489158</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01817683572622067</v>
+        <v>0.01708419701415333</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2041,19 +2041,19 @@
         <v>5492</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2244</v>
+        <v>2253</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10546</v>
+        <v>11329</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008284397649354014</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003385221157158257</v>
+        <v>0.003398678707339683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01590992270809569</v>
+        <v>0.01709039520642354</v>
       </c>
     </row>
     <row r="23">
@@ -2145,19 +2145,19 @@
         <v>222732</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>211888</v>
+        <v>210056</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>232193</v>
+        <v>232170</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8684269219268019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8261438792348744</v>
+        <v>0.8190033860125131</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9053132683447429</v>
+        <v>0.9052238515610624</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>337</v>
@@ -2166,19 +2166,19 @@
         <v>209033</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>198408</v>
+        <v>198848</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>217840</v>
+        <v>217944</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8223953925367963</v>
+        <v>0.8223953925367962</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7805928879307356</v>
+        <v>0.7823253813595439</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8570455371440672</v>
+        <v>0.8574538547384063</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>578</v>
@@ -2187,19 +2187,19 @@
         <v>431766</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>415118</v>
+        <v>417431</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>444264</v>
+        <v>445873</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8455149011214829</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8129145967927107</v>
+        <v>0.8174447904230846</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8699908142599092</v>
+        <v>0.873141740523072</v>
       </c>
     </row>
     <row r="25">
@@ -2216,19 +2216,19 @@
         <v>20928</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14326</v>
+        <v>13905</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29901</v>
+        <v>31059</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08159787257511296</v>
+        <v>0.08159787257511297</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05585792323453912</v>
+        <v>0.05421628915132883</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1165816527687963</v>
+        <v>0.1210970035489554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2237,19 +2237,19 @@
         <v>33837</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26054</v>
+        <v>26373</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42393</v>
+        <v>42664</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1331224048312712</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1025035377855043</v>
+        <v>0.1037575484080462</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.166786121166043</v>
+        <v>0.1678537256150693</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -2258,19 +2258,19 @@
         <v>54765</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44976</v>
+        <v>43864</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68749</v>
+        <v>67258</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1072440149188811</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08807538332780161</v>
+        <v>0.08589734636908627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1346292406102733</v>
+        <v>0.1317101740479809</v>
       </c>
     </row>
     <row r="26">
@@ -2287,19 +2287,19 @@
         <v>10555</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5400</v>
+        <v>5653</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18908</v>
+        <v>18596</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04115311786567395</v>
+        <v>0.04115311786567396</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02105419217327815</v>
+        <v>0.02204229501178588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07372092438025332</v>
+        <v>0.0725040944685847</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2308,19 +2308,19 @@
         <v>4622</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1862</v>
+        <v>1889</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8734</v>
+        <v>9088</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01818596029387139</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007326777477171537</v>
+        <v>0.007431936198819377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03436029369924236</v>
+        <v>0.03575492863562311</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -2329,19 +2329,19 @@
         <v>15177</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9017</v>
+        <v>9253</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23747</v>
+        <v>24399</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02972130147596182</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01765826980453733</v>
+        <v>0.01812073159724109</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04650263455363129</v>
+        <v>0.04778067867376951</v>
       </c>
     </row>
     <row r="27">
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7756</v>
+        <v>7536</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.008822087632411177</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03024161094707628</v>
+        <v>0.02938112079668918</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -2379,19 +2379,19 @@
         <v>6684</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3525</v>
+        <v>3532</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11956</v>
+        <v>11958</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0262962423380612</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01386727156978529</v>
+        <v>0.01389679319794479</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04703769749568888</v>
+        <v>0.04704632726849321</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>13</v>
@@ -2400,19 +2400,19 @@
         <v>8947</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4710</v>
+        <v>4861</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14936</v>
+        <v>14863</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.01751978248367427</v>
+        <v>0.01751978248367426</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.009224320568533119</v>
+        <v>0.009518959459503646</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02924973816139832</v>
+        <v>0.0291067781538501</v>
       </c>
     </row>
     <row r="28">
@@ -2504,19 +2504,19 @@
         <v>155576</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>148623</v>
+        <v>147846</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>161963</v>
+        <v>161607</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8990243003773177</v>
+        <v>0.8990243003773176</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8588461362188499</v>
+        <v>0.8543554547672972</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9359333085517887</v>
+        <v>0.9338759992862079</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>308</v>
@@ -2525,19 +2525,19 @@
         <v>162410</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>153881</v>
+        <v>153032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>169955</v>
+        <v>169823</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8162096858744273</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7733444628833566</v>
+        <v>0.7690806042606613</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8541245772972148</v>
+        <v>0.8534632171885171</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>526</v>
@@ -2546,19 +2546,19 @@
         <v>317987</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>306154</v>
+        <v>307074</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>327263</v>
+        <v>328729</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8547308541910896</v>
+        <v>0.8547308541910894</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8229234092294074</v>
+        <v>0.8253959657880011</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8796634138316234</v>
+        <v>0.8836029853132161</v>
       </c>
     </row>
     <row r="30">
@@ -2575,19 +2575,19 @@
         <v>14088</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8463</v>
+        <v>8540</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20805</v>
+        <v>20986</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08141199331287652</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04890390983516646</v>
+        <v>0.04935257701795249</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1202239699809634</v>
+        <v>0.1212707658387796</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>42</v>
@@ -2596,19 +2596,19 @@
         <v>22372</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16371</v>
+        <v>16635</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29362</v>
+        <v>30183</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1124338342381025</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08227409085040129</v>
+        <v>0.08359928799840496</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1475626857966275</v>
+        <v>0.1516894068508395</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>61</v>
@@ -2617,19 +2617,19 @@
         <v>36461</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28600</v>
+        <v>28056</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>47029</v>
+        <v>46365</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09800404351883715</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07687581852774483</v>
+        <v>0.07541154190661492</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1264123829066843</v>
+        <v>0.1246275054038457</v>
       </c>
     </row>
     <row r="31">
@@ -2646,19 +2646,19 @@
         <v>2460</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8336</v>
+        <v>7081</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.014214342846673</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002939396764635411</v>
+        <v>0.003007847174505598</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04817317346057136</v>
+        <v>0.04091646678872968</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2667,19 +2667,19 @@
         <v>9428</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5677</v>
+        <v>5455</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15151</v>
+        <v>14869</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.04738072768117411</v>
+        <v>0.0473807276811741</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02852827595935341</v>
+        <v>0.0274143545303277</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07614342914523828</v>
+        <v>0.07472401060976916</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -2688,19 +2688,19 @@
         <v>11888</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7650</v>
+        <v>7137</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18712</v>
+        <v>18346</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0319534036474383</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02056288995814325</v>
+        <v>0.01918297420965509</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05029759927649138</v>
+        <v>0.04931165875988654</v>
       </c>
     </row>
     <row r="32">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5968</v>
+        <v>4672</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005349363463132619</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03448727217966923</v>
+        <v>0.02700057226580296</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2738,19 +2738,19 @@
         <v>4771</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2081</v>
+        <v>2334</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8960</v>
+        <v>8971</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02397575220629605</v>
+        <v>0.02397575220629604</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01045869651836852</v>
+        <v>0.01172813158812824</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04502749025696019</v>
+        <v>0.04508676539418833</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -2759,19 +2759,19 @@
         <v>5696</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2745</v>
+        <v>2535</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10787</v>
+        <v>10314</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01531169864263506</v>
+        <v>0.01531169864263505</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007378702317916244</v>
+        <v>0.006815201458891375</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02899597190925935</v>
+        <v>0.02772249452939083</v>
       </c>
     </row>
     <row r="33">
@@ -2863,19 +2863,19 @@
         <v>122387</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>116364</v>
+        <v>116497</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>125888</v>
+        <v>126084</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9446299466818896</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8981408090860946</v>
+        <v>0.8991693552031255</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9716514828600501</v>
+        <v>0.9731657381819604</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>299</v>
@@ -2884,19 +2884,19 @@
         <v>161949</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>154858</v>
+        <v>155166</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>167723</v>
+        <v>168752</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.8699483001679275</v>
+        <v>0.8699483001679277</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8318599609926993</v>
+        <v>0.8335130725054853</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9009680992150477</v>
+        <v>0.9064935790967442</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>481</v>
@@ -2905,19 +2905,19 @@
         <v>284336</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>275624</v>
+        <v>274813</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>292108</v>
+        <v>291021</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9005951265704465</v>
+        <v>0.9005951265704467</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8730002224901831</v>
+        <v>0.8704330994946738</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9252134130514329</v>
+        <v>0.9217699709858144</v>
       </c>
     </row>
     <row r="35">
@@ -2934,19 +2934,19 @@
         <v>5091</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1928</v>
+        <v>2213</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9950</v>
+        <v>11082</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03929266976383867</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01488409954104499</v>
+        <v>0.01707754082089714</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07679869338748606</v>
+        <v>0.0855349545565805</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>31</v>
@@ -2955,19 +2955,19 @@
         <v>16298</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11501</v>
+        <v>11184</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22526</v>
+        <v>22593</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.08755134898961962</v>
+        <v>0.08755134898961964</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06177802979204575</v>
+        <v>0.06007661232676558</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1210032495831024</v>
+        <v>0.1213654673220999</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>38</v>
@@ -2976,19 +2976,19 @@
         <v>21389</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>14864</v>
+        <v>15615</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>28322</v>
+        <v>28988</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.06774761629646245</v>
+        <v>0.06774761629646246</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04708001971891398</v>
+        <v>0.0494582179928232</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08970476343670743</v>
+        <v>0.09181634849685323</v>
       </c>
     </row>
     <row r="36">
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5348</v>
+        <v>5485</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01155605482171073</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0412805398686092</v>
+        <v>0.04233286456311178</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>11</v>
@@ -3026,19 +3026,19 @@
         <v>6163</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3315</v>
+        <v>3112</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10531</v>
+        <v>10426</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0331044450086428</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01780823092263117</v>
+        <v>0.01671565456761337</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05657183959796601</v>
+        <v>0.05600714555227666</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -3047,19 +3047,19 @@
         <v>7660</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4268</v>
+        <v>4274</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>12725</v>
+        <v>13483</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.02426171317105284</v>
+        <v>0.02426171317105285</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01351910207531447</v>
+        <v>0.01353611677374806</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04030625696185239</v>
+        <v>0.04270461348502504</v>
       </c>
     </row>
     <row r="37">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004521328732561106</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -3097,19 +3097,19 @@
         <v>1749</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4877</v>
+        <v>5286</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.009395905833809991</v>
+        <v>0.009395905833809993</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003012061305139555</v>
+        <v>0.00300274478907881</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02619740962341167</v>
+        <v>0.0283973908054655</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -3118,19 +3118,19 @@
         <v>2335</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5688</v>
+        <v>5520</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.007395543962038195</v>
+        <v>0.007395543962038197</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001827450563716841</v>
+        <v>0.001876252638426462</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01801596488247176</v>
+        <v>0.01748459670428363</v>
       </c>
     </row>
     <row r="38">
@@ -3222,19 +3222,19 @@
         <v>1387320</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1355205</v>
+        <v>1353496</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1413598</v>
+        <v>1411681</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8857485931160735</v>
+        <v>0.8857485931160733</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8652448955773668</v>
+        <v>0.8641534439781529</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9025260851871433</v>
+        <v>0.9013022206870045</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2044</v>
@@ -3243,19 +3243,19 @@
         <v>1471945</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1444546</v>
+        <v>1447409</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1495302</v>
+        <v>1495384</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.8683538576187758</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.8521901730896088</v>
+        <v>0.8538791328934012</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8821332671894024</v>
+        <v>0.8821813539598369</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3346</v>
@@ -3264,19 +3264,19 @@
         <v>2859264</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2815404</v>
+        <v>2815547</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2893970</v>
+        <v>2892263</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.87670766310073</v>
+        <v>0.8767076631007301</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.8632595154052809</v>
+        <v>0.8633031289824943</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.8873492545577654</v>
+        <v>0.8868260030810007</v>
       </c>
     </row>
     <row r="40">
@@ -3293,19 +3293,19 @@
         <v>139328</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>115464</v>
+        <v>118482</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>168689</v>
+        <v>169295</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.08895563504512854</v>
+        <v>0.08895563504512853</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07371919696580689</v>
+        <v>0.07564584590401097</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.10770154992216</v>
+        <v>0.1080879454771879</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>240</v>
@@ -3314,19 +3314,19 @@
         <v>161669</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>141602</v>
+        <v>142332</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>184875</v>
+        <v>183174</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09537467711000275</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08353628697723874</v>
+        <v>0.08396710553407964</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1090644070825559</v>
+        <v>0.108060914616881</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>362</v>
@@ -3335,19 +3335,19 @@
         <v>300998</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>267441</v>
+        <v>271248</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>335114</v>
+        <v>339457</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.09229193815149594</v>
+        <v>0.09229193815149593</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08200278721056359</v>
+        <v>0.08317002843947749</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1027526131086746</v>
+        <v>0.1040842708671855</v>
       </c>
     </row>
     <row r="41">
@@ -3364,19 +3364,19 @@
         <v>30989</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20664</v>
+        <v>20523</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>48000</v>
+        <v>47506</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01978501280609443</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01319297102126555</v>
+        <v>0.01310315993580404</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03064605762150735</v>
+        <v>0.03033053872227863</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>57</v>
@@ -3385,19 +3385,19 @@
         <v>40555</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>30099</v>
+        <v>31664</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>52943</v>
+        <v>54494</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0239245970440442</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01775663975896202</v>
+        <v>0.01867946915827876</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03123291101181316</v>
+        <v>0.03214814241717585</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>83</v>
@@ -3406,19 +3406,19 @@
         <v>71543</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>56397</v>
+        <v>56184</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>91669</v>
+        <v>90047</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02193656557869836</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01729242567497289</v>
+        <v>0.01722716455307975</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02810764316938556</v>
+        <v>0.027610224062752</v>
       </c>
     </row>
     <row r="42">
@@ -3435,19 +3435,19 @@
         <v>8631</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>32</v>
@@ -3456,19 +3456,19 @@
         <v>20929</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01234686822717714</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>40</v>
@@ -3477,19 +3477,19 @@
         <v>29560</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009063833169075669</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="43">
